--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="8" t="n">
-        <v>4359.3</v>
+        <v>8213.654</v>
       </c>
       <c r="E31" s="3" t="n"/>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C32" s="19" t="n"/>
       <c r="D32" s="10" t="n">
-        <v>3888.5</v>
+        <v>7326.587</v>
       </c>
       <c r="E32" s="3" t="n"/>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="8" t="n">
-        <v>3708.1</v>
+        <v>6986.684</v>
       </c>
       <c r="E33" s="3" t="n"/>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C34" s="19" t="n"/>
       <c r="D34" s="10" t="n">
-        <v>6315.1</v>
+        <v>11898.71</v>
       </c>
       <c r="E34" s="3" t="n"/>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C35" s="19" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>4712.4</v>
+        <v>8878.953</v>
       </c>
       <c r="E35" s="3" t="n"/>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C36" s="19" t="n"/>
       <c r="D36" s="8" t="n">
-        <v>4441.8</v>
+        <v>8369.097</v>
       </c>
       <c r="E36" s="3" t="n"/>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C37" s="19" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>4162.4</v>
+        <v>7842.661</v>
       </c>
       <c r="E37" s="3" t="n"/>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C38" s="19" t="n"/>
       <c r="D38" s="8" t="n">
-        <v>6581.3</v>
+        <v>12400.274</v>
       </c>
       <c r="E38" s="3" t="n"/>
     </row>
@@ -1254,20 +1254,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="8" t="n">
-        <v>8213.654</v>
+        <v>4359.3</v>
       </c>
       <c r="E31" s="3" t="n"/>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C32" s="19" t="n"/>
       <c r="D32" s="10" t="n">
-        <v>7326.587</v>
+        <v>3888.5</v>
       </c>
       <c r="E32" s="3" t="n"/>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="8" t="n">
-        <v>6986.684</v>
+        <v>3708.1</v>
       </c>
       <c r="E33" s="3" t="n"/>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C34" s="19" t="n"/>
       <c r="D34" s="10" t="n">
-        <v>11898.71</v>
+        <v>6315.1</v>
       </c>
       <c r="E34" s="3" t="n"/>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C35" s="19" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>8878.953</v>
+        <v>4712.4</v>
       </c>
       <c r="E35" s="3" t="n"/>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C36" s="19" t="n"/>
       <c r="D36" s="8" t="n">
-        <v>8369.097</v>
+        <v>4441.8</v>
       </c>
       <c r="E36" s="3" t="n"/>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C37" s="19" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>7842.661</v>
+        <v>4162.4</v>
       </c>
       <c r="E37" s="3" t="n"/>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C38" s="19" t="n"/>
       <c r="D38" s="8" t="n">
-        <v>12400.274</v>
+        <v>6581.3</v>
       </c>
       <c r="E38" s="3" t="n"/>
     </row>
@@ -1254,20 +1254,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1254,20 +1254,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1254,20 +1254,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1254,20 +1254,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
+++ b/server/LISTAS/mi/TARUGO UNIVERSAL DISMAY.xlsx
@@ -989,7 +989,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="8" t="n">
-        <v>4359.3</v>
+        <v>9938.521000000001</v>
       </c>
       <c r="E31" s="3" t="n"/>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C32" s="19" t="n"/>
       <c r="D32" s="10" t="n">
-        <v>3888.5</v>
+        <v>8865.171</v>
       </c>
       <c r="E32" s="3" t="n"/>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C33" s="19" t="n"/>
       <c r="D33" s="8" t="n">
-        <v>3708.1</v>
+        <v>8453.887000000001</v>
       </c>
       <c r="E33" s="3" t="n"/>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C34" s="19" t="n"/>
       <c r="D34" s="10" t="n">
-        <v>6315.1</v>
+        <v>14397.439</v>
       </c>
       <c r="E34" s="3" t="n"/>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C35" s="19" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>4712.4</v>
+        <v>10743.533</v>
       </c>
       <c r="E35" s="3" t="n"/>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C36" s="19" t="n"/>
       <c r="D36" s="8" t="n">
-        <v>4441.8</v>
+        <v>10126.608</v>
       </c>
       <c r="E36" s="3" t="n"/>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C37" s="19" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>4162.4</v>
+        <v>9489.620000000001</v>
       </c>
       <c r="E37" s="3" t="n"/>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C38" s="19" t="n"/>
       <c r="D38" s="8" t="n">
-        <v>6581.3</v>
+        <v>15004.331</v>
       </c>
       <c r="E38" s="3" t="n"/>
     </row>
@@ -1254,20 +1254,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
